--- a/문서파일보관용/DevelopEnvironment.xlsx
+++ b/문서파일보관용/DevelopEnvironment.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunar\OneDrive\바탕 화면\Git\ERPProject\문서파일보관용\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B855A1A-A642-4B65-A52C-BBEAB7B20EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,16 +239,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -254,6 +260,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -302,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,9 +344,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,6 +396,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,11 +588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -566,25 +609,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="D3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -598,7 +639,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
@@ -610,7 +651,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -624,7 +665,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
@@ -636,7 +677,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -650,7 +691,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
@@ -662,7 +703,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -676,7 +717,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
@@ -688,7 +729,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -702,10 +743,10 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -719,11 +760,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -736,7 +778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/문서파일보관용/DevelopEnvironment.xlsx
+++ b/문서파일보관용/DevelopEnvironment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Product</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>Apache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Develop Environment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,16 +237,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,7 +553,7 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -566,25 +570,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="D3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -598,7 +604,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
@@ -610,7 +616,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -624,7 +630,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
@@ -636,7 +642,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -650,7 +656,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
@@ -662,7 +668,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -676,7 +682,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
@@ -688,7 +694,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -702,13 +708,13 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>
@@ -716,9 +722,11 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
